--- a/biology/Zoologie/Agreste_de_Madère/Agreste_de_Madère.xlsx
+++ b/biology/Zoologie/Agreste_de_Madère/Agreste_de_Madère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agreste_de_Mad%C3%A8re</t>
+          <t>Agreste_de_Madère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipparchia maderensis
 L'Agreste de Madère (Hipparchia maderensis) est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Satyrinae et du genre Hipparchia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agreste_de_Mad%C3%A8re</t>
+          <t>Agreste_de_Madère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Hipparchia maderensis a été initialement créée en 1891 par George Thomas Bethune-Baker sous le protonyme de Satyrus semele var. maderensis.
 Elle est désormais considérée comme une espèce distincte d’Hipparchia aristaeus, bien qu'elle fût un temps enregistrée sous le taxon Hipparchia aristaeus maderensis.
-Noms vernaculaires
-L'Agreste de Madère se nomme Madeiran Grayling en anglais
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agreste_de_Mad%C3%A8re</t>
+          <t>Agreste_de_Madère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +555,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste de Madère se nomme Madeiran Grayling en anglais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agreste_de_Madère</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Mad%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agreste  de Madère  est de couleur marron foncé avec chez le mâle quelques taches jaune orangé disposées en bande submarginale aux postérieures, présentes aussi aux antérieures chez la femelle, avec en bordure une frange entrecoupée et deux ocelles noirs aveugles ou pupillés de blanc aux antérieures et un très petit en position anale aux postérieures. 
 Le revers des antérieures est jaune orangé pâle avec l'ocelle noir à l'apex alors que les postérieures sont entièrement marbrées de marron et de blanc avec une bande blanche.
@@ -554,47 +605,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agreste_de_Mad%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agreste_de_Mad%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Agreste de Madère vole en une génération de juillet à septembre[4].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Holcus et des Agrostis.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Agreste_de_Mad%C3%A8re</t>
+          <t>Agreste_de_Madère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,16 +626,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Agreste de Madère est présent uniquement dans l'ile de Madère[4],[2].
-Biotope
-Il réside sur des pentes à faible végétation.
-Protection
-Après avoir été déclaré vulnérable (VU) en 2000 il est déclaré LC en 2009[5].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste de Madère vole en une génération de juillet à septembre.
 </t>
         </is>
       </c>
@@ -629,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Agreste_de_Mad%C3%A8re</t>
+          <t>Agreste_de_Madère</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,10 +663,156 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Holcus et des Agrostis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agreste_de_Madère</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Mad%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste de Madère est présent uniquement dans l'ile de Madère,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agreste_de_Madère</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Mad%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur des pentes à faible végétation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agreste_de_Madère</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Mad%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir été déclaré vulnérable (VU) en 2000 il est déclaré LC en 2009.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agreste_de_Madère</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Mad%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
